--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -444,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999987973654675</v>
+        <v>0.999999946770628</v>
       </c>
       <c r="E2">
-        <v>0.9999987973654675</v>
+        <v>0.999999946770628</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,10 +458,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.99999999914746</v>
+        <v>0.9999999905803297</v>
       </c>
       <c r="E3">
-        <v>0.99999999914746</v>
+        <v>0.9999999905803297</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.177147371992323E-09</v>
+        <v>0.0001370812719789731</v>
       </c>
       <c r="E4">
-        <v>1.177147371992323E-09</v>
+        <v>0.0001370812719789731</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.2124048130103007</v>
+        <v>5.119177639017285E-06</v>
       </c>
       <c r="E5">
-        <v>0.2124048130103007</v>
+        <v>5.119177639017285E-06</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -500,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.005877360091064194</v>
+        <v>0.001807892321715646</v>
       </c>
       <c r="E6">
-        <v>0.005877360091064194</v>
+        <v>0.001807892321715646</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.793076992034912</v>
+        <v>5.871845245361328</v>
       </c>
       <c r="G7">
         <v>0.6666666666666666</v>
